--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Mmp9</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Mmp9</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>217.1623686666667</v>
+        <v>0.04273</v>
       </c>
       <c r="H2">
-        <v>651.487106</v>
+        <v>0.12819</v>
       </c>
       <c r="I2">
-        <v>0.9997193855673946</v>
+        <v>0.7009974407769539</v>
       </c>
       <c r="J2">
-        <v>0.9997193855673946</v>
+        <v>0.7009974407769538</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>4578.176591642638</v>
+        <v>0.1476862176933333</v>
       </c>
       <c r="R2">
-        <v>41203.58932478374</v>
+        <v>1.32917595924</v>
       </c>
       <c r="S2">
-        <v>0.05714456137010846</v>
+        <v>0.006898891414496681</v>
       </c>
       <c r="T2">
-        <v>0.05714456137010846</v>
+        <v>0.006898891414496678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>217.1623686666667</v>
+        <v>0.04273</v>
       </c>
       <c r="H3">
-        <v>651.487106</v>
+        <v>0.12819</v>
       </c>
       <c r="I3">
-        <v>0.9997193855673946</v>
+        <v>0.7009974407769539</v>
       </c>
       <c r="J3">
-        <v>0.9997193855673946</v>
+        <v>0.7009974407769538</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>65496.20267467215</v>
+        <v>12.88737435252667</v>
       </c>
       <c r="R3">
-        <v>589465.8240720492</v>
+        <v>115.98636917274</v>
       </c>
       <c r="S3">
-        <v>0.8175201848011228</v>
+        <v>0.6020101107922431</v>
       </c>
       <c r="T3">
-        <v>0.8175201848011228</v>
+        <v>0.602010110792243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>217.1623686666667</v>
+        <v>0.04273</v>
       </c>
       <c r="H4">
-        <v>651.487106</v>
+        <v>0.12819</v>
       </c>
       <c r="I4">
-        <v>0.9997193855673946</v>
+        <v>0.7009974407769539</v>
       </c>
       <c r="J4">
-        <v>0.9997193855673946</v>
+        <v>0.7009974407769538</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>10018.84009664138</v>
+        <v>1.971359218256667</v>
       </c>
       <c r="R4">
-        <v>90169.56086977241</v>
+        <v>17.74223296431</v>
       </c>
       <c r="S4">
-        <v>0.1250546393961634</v>
+        <v>0.0920884385702142</v>
       </c>
       <c r="T4">
-        <v>0.1250546393961634</v>
+        <v>0.09208843857021418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04273</v>
+        <v>0.018226</v>
       </c>
       <c r="H5">
-        <v>0.12819</v>
+        <v>0.054678</v>
       </c>
       <c r="I5">
-        <v>0.0001967099991014777</v>
+        <v>0.2990025592230461</v>
       </c>
       <c r="J5">
-        <v>0.0001967099991014777</v>
+        <v>0.2990025592230461</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>0.9008258979766666</v>
+        <v>0.06299389196533332</v>
       </c>
       <c r="R5">
-        <v>8.107433081789999</v>
+        <v>0.5669450276879999</v>
       </c>
       <c r="S5">
-        <v>1.12440618618079E-05</v>
+        <v>0.002942644393180821</v>
       </c>
       <c r="T5">
-        <v>1.12440618618079E-05</v>
+        <v>0.002942644393180821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04273</v>
+        <v>0.018226</v>
       </c>
       <c r="H6">
-        <v>0.12819</v>
+        <v>0.054678</v>
       </c>
       <c r="I6">
-        <v>0.0001967099991014777</v>
+        <v>0.2990025592230461</v>
       </c>
       <c r="J6">
-        <v>0.0001967099991014777</v>
+        <v>0.2990025592230461</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
-        <v>12.88737435252667</v>
+        <v>5.496964309598666</v>
       </c>
       <c r="R6">
-        <v>115.98636917274</v>
+        <v>49.47267878638799</v>
       </c>
       <c r="S6">
-        <v>0.0001608595343246224</v>
+        <v>0.2567806290498343</v>
       </c>
       <c r="T6">
-        <v>0.0001608595343246224</v>
+        <v>0.2567806290498343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.04273</v>
+        <v>0.018226</v>
       </c>
       <c r="H7">
-        <v>0.12819</v>
+        <v>0.054678</v>
       </c>
       <c r="I7">
-        <v>0.0001967099991014777</v>
+        <v>0.2990025592230461</v>
       </c>
       <c r="J7">
-        <v>0.0001967099991014777</v>
+        <v>0.2990025592230461</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
-        <v>1.971359218256667</v>
+        <v>0.8408610604246668</v>
       </c>
       <c r="R7">
-        <v>17.74223296431</v>
+        <v>7.567749543822001</v>
       </c>
       <c r="S7">
-        <v>2.460640291504739E-05</v>
+        <v>0.03927928578003099</v>
       </c>
       <c r="T7">
-        <v>2.460640291504739E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.018226</v>
-      </c>
-      <c r="H8">
-        <v>0.054678</v>
-      </c>
-      <c r="I8">
-        <v>8.390443350394411E-05</v>
-      </c>
-      <c r="J8">
-        <v>8.390443350394413E-05</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>21.08181366666667</v>
-      </c>
-      <c r="N8">
-        <v>63.245441</v>
-      </c>
-      <c r="O8">
-        <v>0.0571606014598545</v>
-      </c>
-      <c r="P8">
-        <v>0.0571606014598545</v>
-      </c>
-      <c r="Q8">
-        <v>0.3842371358886666</v>
-      </c>
-      <c r="R8">
-        <v>3.458134222998</v>
-      </c>
-      <c r="S8">
-        <v>4.796027884233813E-06</v>
-      </c>
-      <c r="T8">
-        <v>4.796027884233814E-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.018226</v>
-      </c>
-      <c r="H9">
-        <v>0.054678</v>
-      </c>
-      <c r="I9">
-        <v>8.390443350394411E-05</v>
-      </c>
-      <c r="J9">
-        <v>8.390443350394413E-05</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>301.6001486666667</v>
-      </c>
-      <c r="N9">
-        <v>904.800446</v>
-      </c>
-      <c r="O9">
-        <v>0.8177496571571792</v>
-      </c>
-      <c r="P9">
-        <v>0.8177496571571792</v>
-      </c>
-      <c r="Q9">
-        <v>5.496964309598666</v>
-      </c>
-      <c r="R9">
-        <v>49.47267878638799</v>
-      </c>
-      <c r="S9">
-        <v>6.861282173181764E-05</v>
-      </c>
-      <c r="T9">
-        <v>6.861282173181765E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.018226</v>
-      </c>
-      <c r="H10">
-        <v>0.054678</v>
-      </c>
-      <c r="I10">
-        <v>8.390443350394411E-05</v>
-      </c>
-      <c r="J10">
-        <v>8.390443350394413E-05</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>46.13524966666667</v>
-      </c>
-      <c r="N10">
-        <v>138.405749</v>
-      </c>
-      <c r="O10">
-        <v>0.1250897413829664</v>
-      </c>
-      <c r="P10">
-        <v>0.1250897413829664</v>
-      </c>
-      <c r="Q10">
-        <v>0.8408610604246668</v>
-      </c>
-      <c r="R10">
-        <v>7.567749543822001</v>
-      </c>
-      <c r="S10">
-        <v>1.049558388789267E-05</v>
-      </c>
-      <c r="T10">
-        <v>1.049558388789267E-05</v>
+        <v>0.03927928578003098</v>
       </c>
     </row>
   </sheetData>
